--- a/hw1_table.xlsx
+++ b/hw1_table.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thoernin/TEACH/ECE413_eemusic/years/2019spring/assign/hw1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E0C072-7C3D-0C40-B84F-777D0B74ADCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1600" windowWidth="26280" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1605" windowWidth="26280" windowHeight="19665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>C</t>
   </si>
@@ -100,20 +99,20 @@
     <t>Just Intonation Major Scales by Key</t>
   </si>
   <si>
-    <t>A#/Eb</t>
-  </si>
-  <si>
     <t>Equal Intonation Major Scale Frequencies (Hz) by Key</t>
   </si>
   <si>
     <t>A4</t>
+  </si>
+  <si>
+    <t>(2^2)^(1/12)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +135,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,8 +156,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -176,10 +188,138 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -187,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -197,9 +337,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -210,10 +347,46 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -307,23 +480,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -359,23 +515,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -551,42 +690,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="18" width="10.83203125" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="R1" s="17"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -635,288 +775,612 @@
       <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R2" s="18"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="R3" s="18"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="B4" s="2">
+        <v>440</v>
+      </c>
+      <c r="C4" s="2">
+        <v>440</v>
+      </c>
+      <c r="D4" s="2">
+        <v>440</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="2">
+        <v>440</v>
+      </c>
+      <c r="G4" s="2">
+        <v>440</v>
+      </c>
+      <c r="H4" s="10"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="L4" s="2">
+        <v>440</v>
+      </c>
+      <c r="M4" s="9"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="O4" s="2">
+        <v>440</v>
+      </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="10">
+        <f>E13*(5/4)</f>
+        <v>458.33333333333337</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H5" s="10">
+        <f>H15*9/8</f>
+        <v>458.33333333333337</v>
+      </c>
+      <c r="I5" s="2">
+        <f>I8*5/3</f>
+        <v>458.33333333333331</v>
+      </c>
+      <c r="J5" s="2">
+        <f>J8*5/3</f>
+        <v>458.33333333333331</v>
+      </c>
+      <c r="K5" s="2">
+        <f>K10*3/2</f>
+        <v>469.33333333333337</v>
+      </c>
+      <c r="L5" s="2">
+        <f>L12*4/3</f>
+        <v>469.33333333333331</v>
+      </c>
+      <c r="M5" s="10">
+        <f>M13*(5/4)</f>
+        <v>458.33333333333337</v>
+      </c>
+      <c r="N5" s="2">
+        <f>N15*9/8</f>
+        <v>464.0625</v>
+      </c>
+      <c r="O5" s="2">
+        <f>O4/(15/8)*2</f>
+        <v>469.33333333333331</v>
+      </c>
+      <c r="P5" s="2">
+        <f>P15*9/8</f>
+        <v>458.33333333333337</v>
+      </c>
+      <c r="R5" s="20"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="B6" s="2">
+        <f>B7*15/8</f>
+        <v>495</v>
+      </c>
+      <c r="C6" s="2">
+        <f>C9*5/3</f>
+        <v>488.88888888888886</v>
+      </c>
+      <c r="D6" s="2">
+        <f>D11*3/2</f>
+        <v>495</v>
+      </c>
+      <c r="E6" s="10">
+        <f>E13*4/3</f>
+        <v>488.88888888888891</v>
+      </c>
+      <c r="F6" s="2">
+        <f>F14*5/4</f>
+        <v>488.88888888888886</v>
+      </c>
+      <c r="G6" s="2">
+        <f>G4*9/8</f>
+        <v>495</v>
+      </c>
+      <c r="H6" s="2">
+        <f>(440/(9/5))*2</f>
+        <v>488.88888888888886</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="10">
+        <f>M13*4/3</f>
+        <v>488.88888888888891</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6" s="2">
+        <f>440*2/(9/5)</f>
+        <v>488.88888888888886</v>
+      </c>
+      <c r="R6" s="20"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <f>B4/(5/3)</f>
+        <v>264</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="3">
+        <f>(F14*4/3)/2</f>
+        <v>260.7407407407407</v>
+      </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="I7" s="3">
+        <f>(I8*15/8)/2</f>
+        <v>257.8125</v>
+      </c>
+      <c r="J7" s="3">
+        <f>(J8*15/8)/2</f>
+        <v>257.8125</v>
+      </c>
+      <c r="K7" s="3">
+        <f>(K10*5/3)/2</f>
+        <v>260.74074074074076</v>
+      </c>
+      <c r="L7" s="3">
+        <f>(L12*3/2)/2</f>
+        <v>264</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="3">
+        <f>(N15*5/4)/2</f>
+        <v>257.8125</v>
+      </c>
+      <c r="O7" s="3">
+        <f>(O5*9/8)/2</f>
+        <v>264</v>
+      </c>
       <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R7" s="18"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="3">
+        <f>(C9*15/8)/2</f>
+        <v>275</v>
+      </c>
+      <c r="D8" s="3">
+        <f>(D11*5/3)/2</f>
+        <v>275</v>
+      </c>
+      <c r="E8" s="10">
+        <f>(E13*3/2)/2</f>
+        <v>275</v>
+      </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="G8" s="3">
+        <f>(G4*5/4)/2</f>
+        <v>275</v>
+      </c>
+      <c r="H8" s="3">
+        <f>(H6*9/8)/2</f>
+        <v>275</v>
+      </c>
+      <c r="I8" s="3">
+        <f>440/(8/5)</f>
+        <v>275</v>
+      </c>
+      <c r="J8" s="3">
+        <f>440/(8/5)</f>
+        <v>275</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="M8" s="10">
+        <f>(M13*3/2)/2</f>
+        <v>275</v>
+      </c>
+      <c r="N8" s="3">
+        <f>N7*16/15</f>
+        <v>275</v>
+      </c>
       <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <f>(P6*9/8)/2</f>
+        <v>275</v>
+      </c>
+      <c r="R8" s="20"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3">
+        <f>B7*9/8</f>
+        <v>297</v>
+      </c>
+      <c r="C9" s="3">
+        <f>C4/(3/2)</f>
+        <v>293.33333333333331</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="3">
+        <f>F7*9/8</f>
+        <v>293.33333333333331</v>
+      </c>
+      <c r="G9" s="3">
+        <f>G8*16/15</f>
+        <v>293.33333333333331</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="K9" s="3">
+        <f>K7*9/8</f>
+        <v>293.33333333333337</v>
+      </c>
+      <c r="L9" s="3">
+        <f>L7*10/9</f>
+        <v>293.33333333333331</v>
+      </c>
+      <c r="M9" s="10"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3">
+        <f>(O5*5/4)/2</f>
+        <v>293.33333333333331</v>
+      </c>
       <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="22"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3">
+        <f>(D11*15/8)/2</f>
+        <v>309.375</v>
+      </c>
+      <c r="E10" s="10">
+        <f>E8*10/9</f>
+        <v>305.55555555555554</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="H10" s="3">
+        <f>H8*10/9</f>
+        <v>305.55555555555554</v>
+      </c>
+      <c r="I10" s="3">
+        <f>I8*9/8</f>
+        <v>309.375</v>
+      </c>
+      <c r="J10" s="3">
+        <f>J8*9/8</f>
+        <v>309.375</v>
+      </c>
+      <c r="K10" s="3">
+        <f>440/(45/32)</f>
+        <v>312.88888888888891</v>
+      </c>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M10" s="10">
+        <f>M8*10/9</f>
+        <v>305.55555555555554</v>
+      </c>
+      <c r="N10" s="3">
+        <f>N8*9/8</f>
+        <v>309.375</v>
+      </c>
+      <c r="O10" s="3">
+        <f>(O5*4/3)/2</f>
+        <v>312.88888888888886</v>
+      </c>
+      <c r="P10" s="3">
+        <f>P8*10/9</f>
+        <v>305.55555555555554</v>
+      </c>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="B11" s="3">
+        <f>B7*5/4</f>
+        <v>330</v>
+      </c>
+      <c r="C11" s="3">
+        <f>C9*9/8</f>
+        <v>330</v>
+      </c>
+      <c r="D11" s="3">
+        <f>D4/(4/3)</f>
+        <v>330</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="3">
+        <f>F9*10/9</f>
+        <v>325.92592592592587</v>
+      </c>
+      <c r="G11" s="3">
+        <f>G9*9/8</f>
+        <v>330</v>
+      </c>
+      <c r="H11" s="3">
+        <f>H10*16/15</f>
+        <v>325.92592592592592</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="3">
+        <f>L9*9/8</f>
+        <v>330</v>
+      </c>
+      <c r="M11" s="10"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P11" s="3">
+        <f>P10*16/15</f>
+        <v>325.92592592592592</v>
+      </c>
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <f>B7*4/3</f>
+        <v>352</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="10">
+        <f>E10*9/8</f>
+        <v>343.75</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="I12" s="3">
+        <f>I8*5/4</f>
+        <v>343.75</v>
+      </c>
+      <c r="J12" s="3">
+        <f>J8*5/4</f>
+        <v>343.75</v>
+      </c>
+      <c r="K12" s="3">
+        <f>K10*9/8</f>
+        <v>352</v>
+      </c>
+      <c r="L12" s="3">
+        <f>L4/(5/4)</f>
+        <v>352</v>
+      </c>
+      <c r="M12" s="10">
+        <f>M10*9/8</f>
+        <v>343.75</v>
+      </c>
+      <c r="N12" s="3">
+        <f>N10*10/9</f>
+        <v>343.75</v>
+      </c>
+      <c r="O12" s="3">
+        <f>(O5*3/2)/2</f>
+        <v>352</v>
+      </c>
       <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R12" s="20"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="C13" s="3">
+        <f>C9*5/4</f>
+        <v>366.66666666666663</v>
+      </c>
+      <c r="D13" s="3">
+        <f>D11*9/8</f>
+        <v>371.25</v>
+      </c>
+      <c r="E13" s="10">
+        <f>440/(6/5)</f>
+        <v>366.66666666666669</v>
+      </c>
+      <c r="F13" s="3">
+        <f>F11*9/8</f>
+        <v>366.66666666666663</v>
+      </c>
+      <c r="G13" s="3">
+        <f>G11*10/9</f>
+        <v>366.66666666666669</v>
+      </c>
+      <c r="H13" s="3">
+        <f>H11*9/8</f>
+        <v>366.66666666666669</v>
+      </c>
+      <c r="I13" s="3">
+        <f>I8*4/3</f>
+        <v>366.66666666666669</v>
+      </c>
+      <c r="J13" s="3">
+        <f>J8*4/3</f>
+        <v>366.66666666666669</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="M13" s="10">
+        <f>440/(6/5)</f>
+        <v>366.66666666666669</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <f>P11*9/8</f>
+        <v>366.66666666666669</v>
+      </c>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3">
+        <f>B7*3/2</f>
+        <v>396</v>
+      </c>
+      <c r="C14" s="3">
+        <f>C9*4/3</f>
+        <v>391.11111111111109</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="3">
+        <f>F4/(9/8)</f>
+        <v>391.11111111111109</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="K14" s="3">
+        <f>K10*5/4</f>
+        <v>391.11111111111114</v>
+      </c>
+      <c r="L14" s="3">
+        <f>L12*9/8</f>
+        <v>396</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="3">
+        <f>N12*9/8</f>
+        <v>386.71875</v>
+      </c>
+      <c r="O14" s="3">
+        <f>(O5*5/3)/2</f>
+        <v>391.11111111111109</v>
+      </c>
       <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="20"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="3">
+        <f>D11*5/4</f>
+        <v>412.5</v>
+      </c>
+      <c r="E15" s="10">
+        <f>E13*(9/8)</f>
+        <v>412.5</v>
+      </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="G15" s="3">
+        <f>G13*9/8</f>
+        <v>412.5</v>
+      </c>
+      <c r="H15" s="3">
+        <f>H13*10/9</f>
+        <v>407.40740740740745</v>
+      </c>
+      <c r="I15" s="3">
+        <f>I8*3/2</f>
+        <v>412.5</v>
+      </c>
+      <c r="J15" s="3">
+        <f>J8*3/2</f>
+        <v>412.5</v>
+      </c>
+      <c r="K15" s="3">
+        <f>K10*4/3</f>
+        <v>417.18518518518522</v>
+      </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="M15" s="10">
+        <f>M13*(9/8)</f>
+        <v>412.5</v>
+      </c>
+      <c r="N15" s="3">
+        <f>440/(16/15)</f>
+        <v>412.5</v>
+      </c>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <f>P13*10/9</f>
+        <v>407.40740740740745</v>
+      </c>
+      <c r="R15" s="20"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R16" s="21"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="R17" s="29"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -965,284 +1429,599 @@
       <c r="P18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q18" s="23"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="26"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
+        <v>440</v>
+      </c>
+      <c r="C19" s="2">
+        <v>440</v>
+      </c>
+      <c r="D19" s="2">
+        <v>440</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="2">
+        <v>440</v>
+      </c>
+      <c r="G19" s="2">
+        <v>440</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="2">
+        <v>440</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" s="2">
+        <v>440</v>
+      </c>
       <c r="P19" s="2"/>
-      <c r="R19" s="6"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R19" s="27"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <f>440*(2^1)^(1/12)</f>
+        <v>466.16376151808993</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="R20" s="6"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H20" s="2">
+        <f>440*(2^1)^(1/12)</f>
+        <v>466.16376151808993</v>
+      </c>
+      <c r="I20" s="2">
+        <f>440*(2^1)^(1/12)</f>
+        <v>466.16376151808993</v>
+      </c>
+      <c r="J20" s="2">
+        <f>440*(2^1)^(1/12)</f>
+        <v>466.16376151808993</v>
+      </c>
+      <c r="K20" s="2">
+        <f>440*(2^1)^(1/12)</f>
+        <v>466.16376151808993</v>
+      </c>
+      <c r="L20" s="2">
+        <f>440*(2^1)^(1/12)</f>
+        <v>466.16376151808993</v>
+      </c>
+      <c r="M20" s="2">
+        <f>440*(2^1)^(1/12)</f>
+        <v>466.16376151808993</v>
+      </c>
+      <c r="N20" s="2">
+        <f>440*(2^1)^(1/12)</f>
+        <v>466.16376151808993</v>
+      </c>
+      <c r="O20" s="2">
+        <f>440*(2^1)^(1/12)</f>
+        <v>466.16376151808993</v>
+      </c>
+      <c r="P20" s="2">
+        <f>440*(2^1)^(1/12)</f>
+        <v>466.16376151808993</v>
+      </c>
+      <c r="R20" s="25"/>
+      <c r="S20" s="26"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="B21" s="2">
+        <f>440*(2^2)^(1/12)</f>
+        <v>493.88330125612413</v>
+      </c>
+      <c r="C21" s="2">
+        <f>440*(2^2)^(1/12)</f>
+        <v>493.88330125612413</v>
+      </c>
+      <c r="D21" s="2">
+        <f>440*(2^2)^(1/12)</f>
+        <v>493.88330125612413</v>
+      </c>
+      <c r="E21" s="2">
+        <f>440*(2^2)^(1/12)</f>
+        <v>493.88330125612413</v>
+      </c>
+      <c r="F21" s="2">
+        <f>440*(2^2)^(1/12)</f>
+        <v>493.88330125612413</v>
+      </c>
+      <c r="G21" s="2">
+        <f>440*(2^2)^(1/12)</f>
+        <v>493.88330125612413</v>
+      </c>
+      <c r="H21" s="2">
+        <f>440*(2^2)^(1/12)</f>
+        <v>493.88330125612413</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="M21" s="2">
+        <f>440*(2^2)^(1/12)</f>
+        <v>493.88330125612413</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="R21" s="6"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P21" s="2">
+        <f>440*(2^2)^(1/12)</f>
+        <v>493.88330125612413</v>
+      </c>
+      <c r="R21" s="24"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="R22" s="6"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <f>440*(2^3)^(1/12)</f>
+        <v>523.25113060119725</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <f>440*(2^3)^(1/12)</f>
+        <v>523.25113060119725</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
+        <f>440*(2^3)^(1/12)</f>
+        <v>523.25113060119725</v>
+      </c>
+      <c r="J22" s="2">
+        <f>440*(2^3)^(1/12)</f>
+        <v>523.25113060119725</v>
+      </c>
+      <c r="K22" s="2">
+        <f>440*(2^3)^(1/12)</f>
+        <v>523.25113060119725</v>
+      </c>
+      <c r="L22" s="30">
+        <f>440*(2^3)^(1/12)</f>
+        <v>523.25113060119725</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2">
+        <f>440*(2^3)^(1/12)</f>
+        <v>523.25113060119725</v>
+      </c>
+      <c r="O22" s="2">
+        <f>440*(2^3)^(1/12)</f>
+        <v>523.25113060119725</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="R22" s="16"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="R23" s="6"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C23" s="2">
+        <f>440*(2^4)^(1/12)</f>
+        <v>554.36526195374415</v>
+      </c>
+      <c r="D23" s="2">
+        <f>440*(2^4)^(1/12)</f>
+        <v>554.36526195374415</v>
+      </c>
+      <c r="E23" s="2">
+        <f>440*(2^4)^(1/12)</f>
+        <v>554.36526195374415</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <f>440*(2^4)^(1/12)</f>
+        <v>554.36526195374415</v>
+      </c>
+      <c r="H23" s="2">
+        <f>440*(2^4)^(1/12)</f>
+        <v>554.36526195374415</v>
+      </c>
+      <c r="I23" s="2">
+        <f>440*(2^4)^(1/12)</f>
+        <v>554.36526195374415</v>
+      </c>
+      <c r="J23" s="2">
+        <f>440*(2^4)^(1/12)</f>
+        <v>554.36526195374415</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2">
+        <f>440*(2^4)^(1/12)</f>
+        <v>554.36526195374415</v>
+      </c>
+      <c r="N23" s="2">
+        <f>440*(2^4)^(1/12)</f>
+        <v>554.36526195374415</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2">
+        <f>440*(2^4)^(1/12)</f>
+        <v>554.36526195374415</v>
+      </c>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="R24" s="6"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <f>440*(2^5)^(1/12)</f>
+        <v>587.32953583481515</v>
+      </c>
+      <c r="C24" s="2">
+        <f>440*(2^5)^(1/12)</f>
+        <v>587.32953583481515</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <f>440*(2^5)^(1/12)</f>
+        <v>587.32953583481515</v>
+      </c>
+      <c r="G24" s="2">
+        <f>440*(2^5)^(1/12)</f>
+        <v>587.32953583481515</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2">
+        <f>440*(2^5)^(1/12)</f>
+        <v>587.32953583481515</v>
+      </c>
+      <c r="L24" s="2">
+        <f>440*(2^5)^(1/12)</f>
+        <v>587.32953583481515</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2">
+        <f>440*(2^5)^(1/12)</f>
+        <v>587.32953583481515</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="R25" s="6"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <f>440*(2^6)^(1/12)</f>
+        <v>622.25396744416173</v>
+      </c>
+      <c r="E25" s="2">
+        <f>440*(2^6)^(1/12)</f>
+        <v>622.25396744416173</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
+        <f>440*(2^6)^(1/12)</f>
+        <v>622.25396744416173</v>
+      </c>
+      <c r="I25" s="2">
+        <f>440*(2^6)^(1/12)</f>
+        <v>622.25396744416173</v>
+      </c>
+      <c r="J25" s="2">
+        <f>440*(2^6)^(1/12)</f>
+        <v>622.25396744416173</v>
+      </c>
+      <c r="K25" s="2">
+        <f>440*(2^6)^(1/12)</f>
+        <v>622.25396744416173</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2">
+        <f>440*(2^6)^(1/12)</f>
+        <v>622.25396744416173</v>
+      </c>
+      <c r="N25" s="2">
+        <f>440*(2^6)^(1/12)</f>
+        <v>622.25396744416173</v>
+      </c>
+      <c r="O25" s="2">
+        <f>440*(2^6)^(1/12)</f>
+        <v>622.25396744416173</v>
+      </c>
+      <c r="P25" s="2">
+        <f>440*(2^6)^(1/12)</f>
+        <v>622.25396744416173</v>
+      </c>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="R26" s="6"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <f>440*(2^7)^(1/12)</f>
+        <v>659.25511382573984</v>
+      </c>
+      <c r="C26" s="2">
+        <f>440*(2^7)^(1/12)</f>
+        <v>659.25511382573984</v>
+      </c>
+      <c r="D26" s="2">
+        <f>440*(2^7)^(1/12)</f>
+        <v>659.25511382573984</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <f>440*(2^7)^(1/12)</f>
+        <v>659.25511382573984</v>
+      </c>
+      <c r="G26" s="2">
+        <f>440*(2^7)^(1/12)</f>
+        <v>659.25511382573984</v>
+      </c>
+      <c r="H26" s="2">
+        <f>440*(2^7)^(1/12)</f>
+        <v>659.25511382573984</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2">
+        <f>440*(2^7)^(1/12)</f>
+        <v>659.25511382573984</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2">
+        <f>440*(2^7)^(1/12)</f>
+        <v>659.25511382573984</v>
+      </c>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="R27" s="6"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <f>440*(2^8)^(1/12)</f>
+        <v>698.45646286600777</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
+        <f>440*(2^8)^(1/12)</f>
+        <v>698.45646286600777</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2">
+        <f>440*(2^8)^(1/12)</f>
+        <v>698.45646286600777</v>
+      </c>
+      <c r="J27" s="2">
+        <f>440*(2^8)^(1/12)</f>
+        <v>698.45646286600777</v>
+      </c>
+      <c r="K27" s="2">
+        <f>440*(2^8)^(1/12)</f>
+        <v>698.45646286600777</v>
+      </c>
+      <c r="L27" s="2">
+        <f>440*(2^8)^(1/12)</f>
+        <v>698.45646286600777</v>
+      </c>
+      <c r="M27" s="2">
+        <f>440*(2^8)^(1/12)</f>
+        <v>698.45646286600777</v>
+      </c>
+      <c r="N27" s="2">
+        <f>440*(2^8)^(1/12)</f>
+        <v>698.45646286600777</v>
+      </c>
+      <c r="O27" s="2">
+        <f>440*(2^8)^(1/12)</f>
+        <v>698.45646286600777</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="R28" s="6"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C28" s="2">
+        <f>440*(2^9)^(1/12)</f>
+        <v>739.9888454232688</v>
+      </c>
+      <c r="D28" s="2">
+        <f>440*(2^9)^(1/12)</f>
+        <v>739.9888454232688</v>
+      </c>
+      <c r="E28" s="2">
+        <f>440*(2^9)^(1/12)</f>
+        <v>739.9888454232688</v>
+      </c>
+      <c r="F28" s="2">
+        <f>440*(2^9)^(1/12)</f>
+        <v>739.9888454232688</v>
+      </c>
+      <c r="G28" s="2">
+        <f>440*(2^9)^(1/12)</f>
+        <v>739.9888454232688</v>
+      </c>
+      <c r="H28" s="2">
+        <f>440*(2^9)^(1/12)</f>
+        <v>739.9888454232688</v>
+      </c>
+      <c r="I28" s="2">
+        <f>440*(2^9)^(1/12)</f>
+        <v>739.9888454232688</v>
+      </c>
+      <c r="J28" s="2">
+        <f>440*(2^9)^(1/12)</f>
+        <v>739.9888454232688</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2">
+        <f>440*(2^9)^(1/12)</f>
+        <v>739.9888454232688</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2">
+        <f>440*(2^9)^(1/12)</f>
+        <v>739.9888454232688</v>
+      </c>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="R29" s="6"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <f>440*(2^10)^(1/12)</f>
+        <v>783.99087196349853</v>
+      </c>
+      <c r="C29" s="2">
+        <f>440*(2^10)^(1/12)</f>
+        <v>783.99087196349853</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
+        <f>440*(2^10)^(1/12)</f>
+        <v>783.99087196349853</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2">
+        <f>440*(2^10)^(1/12)</f>
+        <v>783.99087196349853</v>
+      </c>
+      <c r="L29" s="2">
+        <f>440*(2^10)^(1/12)</f>
+        <v>783.99087196349853</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2">
+        <f>440*(2^10)^(1/12)</f>
+        <v>783.99087196349853</v>
+      </c>
+      <c r="O29" s="2">
+        <f>440*(2^10)^(1/12)</f>
+        <v>783.99087196349853</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="R30" s="6"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="R31" s="6"/>
-    </row>
-    <row r="32" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="29.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <f>440*(2^11)^(1/12)</f>
+        <v>830.60939515989025</v>
+      </c>
+      <c r="E30" s="2">
+        <f>440*(2^11)^(1/12)</f>
+        <v>830.60939515989025</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <f>440*(2^11)^(1/12)</f>
+        <v>830.60939515989025</v>
+      </c>
+      <c r="H30" s="2">
+        <f>440*(2^11)^(1/12)</f>
+        <v>830.60939515989025</v>
+      </c>
+      <c r="I30" s="2">
+        <f>440*(2^11)^(1/12)</f>
+        <v>830.60939515989025</v>
+      </c>
+      <c r="J30" s="2">
+        <f>440*(2^11)^(1/12)</f>
+        <v>830.60939515989025</v>
+      </c>
+      <c r="K30" s="2">
+        <f>440*(2^11)^(1/12)</f>
+        <v>830.60939515989025</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2">
+        <f>440*(2^11)^(1/12)</f>
+        <v>830.60939515989025</v>
+      </c>
+      <c r="N30" s="2">
+        <f>440*(2^11)^(1/12)</f>
+        <v>830.60939515989025</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2">
+        <f>440*(2^11)^(1/12)</f>
+        <v>830.60939515989025</v>
+      </c>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:P1"/>
